--- a/tests/ex1_shear_center_open/ClosedSections.xlsx
+++ b/tests/ex1_shear_center_open/ClosedSections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnwob\GitHub\ShearFlowThinSections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnwob\GitHub\ShearFlowThinSections\tests\ex1_shear_center_open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0730C6BC-686C-4B0E-ADF7-F2EB12577020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E3CFF9-8652-4EDC-B806-7608B8EDD910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="5595" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,10 +385,10 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
